--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -19,17 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得学位的年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faculty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,10 +317,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>注意与推荐人关系可以填以下内容：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LiShengrui@xmu.edu.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,15 +626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Professor， Finance Department of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+86)0592-5919098(办公室)
-(+86)13696922355（手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lzb603@hotmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,20 +659,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Degree Received or Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese Japanese</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>linjj666@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Professor， of Japanese Language and Literature Department of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(+86)13696999156（手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager of Department of Credit Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,36 +689,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Japanese Dept.of Xiamen U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(+86)13696999156（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Finance Department of Xiamen University 361005, China
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Finance Dept.of Xiamen U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor， Finance Department of Xiamen University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+86)0592-5919098(办公室)
+(+86)13696922355（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>China National Credit Information Service, Inc No.11 Ronghua Mid-Road,Technical Economic Development Area, 100176 Beijing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Japanese Dept.of Xiamen U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finance Dept.of Xiamen U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date Degree Received or Expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese Japanese</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>linjj666@hotmail.com</t>
+    <t>Manager of Department of Credit Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesis Advisor</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Department Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意与推荐人关系可以填以下内容：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +746,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,16 +812,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -885,12 +899,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,10 +944,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +974,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -975,7 +989,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -991,19 +1005,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,90 +1341,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -1455,58 +1475,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1522,60 +1542,60 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.45" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27">
       <c r="A16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5">
         <v>2012.07</v>
@@ -1583,7 +1603,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5">
         <v>101100</v>
@@ -1591,57 +1611,57 @@
     </row>
     <row r="19" spans="1:2" ht="27">
       <c r="A19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5">
         <v>15910969705</v>
@@ -1649,7 +1669,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="7"/>
     </row>
@@ -1667,19 +1687,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
     <col min="9" max="9" width="32.625" customWidth="1"/>
     <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
@@ -1691,87 +1711,87 @@
   <sheetData>
     <row r="1" spans="1:17" ht="54">
       <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="187.9" customHeight="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="I2" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>121</v>
+      <c r="J2" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1779,96 +1799,96 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="141" customHeight="1">
       <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="204.6" customHeight="1">
       <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>115</v>
+      <c r="B4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>111</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
+      <c r="J4" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="G5" s="17" t="s">
-        <v>73</v>
+      <c r="G5" s="39" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="G6" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1903,26 +1923,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
-        <v>128</v>
+      <c r="A2" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1931,12 +1951,12 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1944,20 +1964,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1990,31 +2010,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48.6" customHeight="1">
@@ -2022,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -2037,21 +2057,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="26"/>
     </row>
@@ -2080,21 +2100,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="125.25" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="555" windowWidth="15600" windowHeight="6690" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="7" r:id="rId1"/>
@@ -14,12 +14,17 @@
     <sheet name="语言考试信息" sheetId="4" r:id="rId5"/>
     <sheet name="AdditionalInformation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,20 +742,43 @@
     <t>注意与推荐人关系可以填以下内容：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> year</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -857,25 +885,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -883,13 +911,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -950,16 +978,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1027,8 +1055,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,9 +1361,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,6 +1458,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1441,28 +1474,28 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
+    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
     <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9" style="1"/>
+    <col min="20" max="23" width="8.83203125" style="1"/>
     <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="25" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1497,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27">
+    <row r="5" spans="1:2" ht="28">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.45" customHeight="1">
+    <row r="11" spans="1:2" ht="41.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27">
+    <row r="16" spans="1:2" ht="28">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1642,7 @@
         <v>101100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27">
+    <row r="19" spans="1:2" ht="28">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27">
+    <row r="20" spans="1:2" ht="28">
       <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +1712,11 @@
     <hyperlink ref="B12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1687,29 +1724,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="23.25" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54">
+    <row r="1" spans="1:17" ht="56">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1762,7 +1799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="187.9" customHeight="1">
+    <row r="2" spans="1:17" ht="188" customHeight="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -1833,8 +1870,8 @@
       <c r="I3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>108</v>
+      <c r="J3" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1844,7 +1881,7 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
     </row>
-    <row r="4" spans="1:17" ht="204.6" customHeight="1">
+    <row r="4" spans="1:17" ht="204.5" customHeight="1">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -1900,7 +1937,11 @@
     <hyperlink ref="I2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1912,13 +1953,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1986,6 +2027,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1997,13 +2043,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2037,7 +2083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48.6" customHeight="1">
+    <row r="2" spans="1:9" ht="48.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2052,7 +2098,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2078,7 +2124,11 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2090,12 +2140,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
-    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2122,5 +2172,10 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -725,10 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Manager of Department of Credit Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Thesis Advisor</t>
   </si>
   <si>
@@ -764,6 +760,9 @@
       </rPr>
       <t xml:space="preserve"> year</t>
     </r>
+  </si>
+  <si>
+    <t>Manager of Department of Credit Management</t>
   </si>
 </sst>
 </file>
@@ -932,7 +931,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1725,7 +1727,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1819,7 +1821,7 @@
         <v>120</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>123</v>
@@ -1862,7 +1864,7 @@
         <v>126</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>127</v>
@@ -1871,7 +1873,7 @@
         <v>107</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1895,11 +1897,11 @@
         <v>128</v>
       </c>
       <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
-        <v>129</v>
+      <c r="F4" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>111</v>
@@ -1920,7 +1922,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17">

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="17700" yWindow="860" windowWidth="25600" windowHeight="16060" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="7" r:id="rId1"/>
@@ -652,10 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wuxinghua@ec.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Juanjuan Lin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,6 +759,9 @@
   </si>
   <si>
     <t>Manager of Department of Credit Management</t>
+  </si>
+  <si>
+    <t>wuxinghua@ec.com.cn</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1726,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1806,31 +1805,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>115</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1855,25 +1854,25 @@
         <v>106</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>127</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1894,20 +1893,20 @@
         <v>110</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>111</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>108</v>
@@ -1922,7 +1921,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1974,10 +1973,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1985,7 +1984,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="860" windowWidth="25600" windowHeight="16060" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="17700" yWindow="855" windowWidth="25605" windowHeight="16065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="ToDo" sheetId="7" r:id="rId1"/>
-    <sheet name="个人信息" sheetId="1" r:id="rId2"/>
-    <sheet name="推荐人信息" sheetId="2" r:id="rId3"/>
-    <sheet name="PreviousEducation" sheetId="5" r:id="rId4"/>
-    <sheet name="语言考试信息" sheetId="4" r:id="rId5"/>
-    <sheet name="AdditionalInformation" sheetId="6" r:id="rId6"/>
+    <sheet name="个人信息" sheetId="1" r:id="rId1"/>
+    <sheet name="推荐人信息" sheetId="2" r:id="rId2"/>
+    <sheet name="PreviousEducation" sheetId="5" r:id="rId3"/>
+    <sheet name="语言考试信息" sheetId="4" r:id="rId4"/>
+    <sheet name="AdditionalInformation" sheetId="6" r:id="rId5"/>
+    <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>网申邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,10 +249,6 @@
   </si>
   <si>
     <t>职位Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chenganglun2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bachalor of XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sugarmoon0715@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(+86)15810108212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护照明细号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,10 +304,6 @@
   <si>
     <t>成绩明细</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiShengrui@xmu.edu.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常用邮箱</t>
@@ -342,10 +322,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>收集素材</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>RL1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -362,10 +338,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>请忆超提供</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Certificate of Bachelor Degree</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -375,10 +347,6 @@
   </si>
   <si>
     <t>GMAT成绩单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>待考</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -394,6 +362,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>eneral GPA</t>
@@ -413,6 +382,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>7/15/1988</t>
@@ -428,14 +398,11 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>55787661</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(+86)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,6 +414,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2号楼832室</t>
@@ -462,6 +430,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>udongyuan Community 22--832 Tongzhou District Beijing City</t>
@@ -493,6 +462,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>econd Degree</t>
@@ -508,6 +478,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ajor Degree</t>
@@ -516,10 +487,6 @@
   </si>
   <si>
     <t>Japanese</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>economics</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -531,6 +498,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 95</t>
@@ -540,6 +508,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：reading </t>
@@ -549,6 +518,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>25</t>
@@ -558,6 +528,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,listening </t>
@@ -567,6 +538,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>21</t>
@@ -576,6 +548,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, speaking </t>
@@ -585,6 +558,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>22</t>
@@ -594,6 +568,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, writing </t>
@@ -603,6 +578,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>27</t>
@@ -612,6 +588,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">          </t>
@@ -743,6 +720,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.5</t>
@@ -752,6 +730,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> year</t>
@@ -762,6 +741,54 @@
   </si>
   <si>
     <t>wuxinghua@ec.com.cn</t>
+  </si>
+  <si>
+    <t>(+86)15810108212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paypal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>785348675@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economics</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>toPrint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toWrite</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toDo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>toPrint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor of Art in Japanese Language and Literature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbal 21;Quantitative 50; Total 610;Analytical Writing 2.5; Integrated Reasoning 5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -769,53 +796,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -823,18 +857,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -842,6 +879,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -930,7 +968,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,16 +1014,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1054,10 +1092,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,108 +1397,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1"/>
+    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>76</v>
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>77</v>
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>77</v>
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>77</v>
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>77</v>
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>82</v>
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16">
+        <v>41091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.45" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="26.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="35.25" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2012.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="17" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <v>15910969705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1469,248 +1652,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1"/>
-    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="54">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="106.5" customHeight="1">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="16">
-        <v>41091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.5" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="B2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="91.5" customHeight="1">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2012.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5">
-        <v>101100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28">
-      <c r="A19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28">
-      <c r="A20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="B3" s="35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="C3" s="35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="D3" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+    </row>
+    <row r="4" spans="1:17" ht="86.25" customHeight="1">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5">
-        <v>15910969705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="7"/>
+      <c r="B4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="G5" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="G6" s="27" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1723,220 +1872,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="56">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="188" customHeight="1">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="141" customHeight="1">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="36" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="30"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="204.5" customHeight="1">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="G5" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="G6" s="27" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-  </hyperlinks>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1948,82 +1962,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="59.375" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="30"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="27">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2038,89 +2063,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="25" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2135,43 +2111,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
-        <v>42</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="125.25" customHeight="1">
-      <c r="B2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="855" windowWidth="25605" windowHeight="16065" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="AdditionalInformation" sheetId="6" r:id="rId5"/>
     <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,20 +790,23 @@
     <t>Verbal 21;Quantitative 50; Total 610;Analytical Writing 2.5; Integrated Reasoning 5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>hhrhl@216113</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1014,16 +1017,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1097,8 +1100,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,32 +1402,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
     <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.875" style="1"/>
+    <col min="20" max="23" width="8.83203125" style="1"/>
     <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.875" style="1"/>
-    <col min="27" max="27" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.875" style="1"/>
+    <col min="25" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1459,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27">
+    <row r="5" spans="1:2" ht="28">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.45" customHeight="1">
+    <row r="11" spans="1:2" ht="41.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>101100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27">
+    <row r="19" spans="1:2" ht="28">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27">
+    <row r="20" spans="1:2" ht="28">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1654,29 +1657,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54">
+    <row r="1" spans="1:17" ht="56">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1874,17 +1877,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1964,17 +1967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2008,7 +2012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" customHeight="1">
+    <row r="2" spans="1:9" ht="42" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2027,15 +2031,19 @@
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4">
+        <v>832067</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E3" s="18" t="s">
         <v>94</v>
       </c>
@@ -2069,12 +2077,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
-    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2117,9 +2125,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="-1845" yWindow="825" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="AdditionalInformation" sheetId="6" r:id="rId5"/>
     <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,9 +84,6 @@
   <si>
     <t>TOEFL</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://toefl1.etest.net.cn/cn</t>
   </si>
   <si>
     <t>编号</t>
@@ -282,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sugarmoon0715@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lishengrui2012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,10 +736,6 @@
     <t>wuxinghua@ec.com.cn</t>
   </si>
   <si>
-    <t>(+86)15810108212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Paypal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,7 +780,16 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>hhrhl@216113</t>
+    <t>http://toefl1.etest.net.cn/cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+86)15810108212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>````</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,14 +797,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -971,7 +969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,16 +1015,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1098,10 +1096,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1402,37 +1403,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="10" max="11" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="8.875" style="1"/>
     <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.83203125" style="1"/>
+    <col min="20" max="23" width="8.875" style="1"/>
     <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="25" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -1440,58 +1441,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28">
+    <row r="5" spans="1:2" ht="27">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1507,15 +1508,15 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.5" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.45" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" customHeight="1">
@@ -1523,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1531,15 +1532,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1547,20 +1548,20 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5">
         <v>2012.07</v>
@@ -1568,42 +1569,42 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>101100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28">
+    <row r="19" spans="1:2" ht="27">
       <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1641,7 +1642,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId1" display="sugarmoon0715@gmail.com"/>
     <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,79 +1658,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="56">
+    <row r="1" spans="1:17" ht="54">
       <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="106.5" customHeight="1">
@@ -1737,31 +1738,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1776,31 +1777,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -1815,29 +1816,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
@@ -1849,12 +1850,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="G6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1877,41 +1878,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1920,12 +1921,12 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1933,20 +1934,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1968,24 +1969,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="59.375" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>11</v>
@@ -1997,69 +1997,68 @@
         <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="28">
+    <row r="3" spans="1:9" ht="27">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
-        <v>832067</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2077,31 +2076,31 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2125,98 +2124,98 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1845" yWindow="825" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="660" yWindow="320" windowWidth="13180" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="AdditionalInformation" sheetId="6" r:id="rId5"/>
     <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -784,12 +784,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">sugarmoon0715@gmail.com </t>
+  </si>
+  <si>
     <t>(+86)15810108212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>````</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -797,14 +795,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -897,6 +895,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1015,16 +1018,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1039,9 +1042,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1099,10 +1099,13 @@
     <xf numFmtId="11" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1403,32 +1406,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="1"/>
+    <col min="18" max="18" width="8.83203125" style="1"/>
     <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.875" style="1"/>
+    <col min="20" max="23" width="8.83203125" style="1"/>
     <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.875" style="1"/>
-    <col min="27" max="27" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.875" style="1"/>
+    <col min="25" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1463,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27">
+    <row r="5" spans="1:2" ht="28">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.45" customHeight="1">
+    <row r="11" spans="1:2" ht="41.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
@@ -1519,12 +1522,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="26.25" customHeight="1">
+    <row r="12" spans="1:2" ht="82" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>136</v>
+      <c r="B12" s="42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1539,7 +1542,7 @@
       <c r="A14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1548,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1575,7 +1578,7 @@
         <v>101100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27">
+    <row r="19" spans="1:2" ht="28">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27">
+    <row r="20" spans="1:2" ht="28">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -1642,8 +1645,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="sugarmoon0715@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1658,29 +1660,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="21.125" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54">
+    <row r="1" spans="1:17" ht="56">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1734,34 +1736,34 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="106.5" customHeight="1">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>102</v>
       </c>
       <c r="K2" s="3"/>
@@ -1770,31 +1772,31 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -1803,58 +1805,58 @@
       <c r="J3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1882,25 +1884,25 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1908,32 +1910,32 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1941,17 +1943,17 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1972,13 +1974,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2002,7 +2004,7 @@
       <c r="F1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="19" t="s">
@@ -2027,11 +2029,11 @@
       <c r="F2" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="27">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="28">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2046,13 +2048,13 @@
       <c r="F3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2076,12 +2078,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
-    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2124,9 +2126,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>People's Republic of China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Marital Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +784,10 @@
   </si>
   <si>
     <t>(+86)15810108212</t>
+  </si>
+  <si>
+    <t>People's Republic of China
+唐山市 Tangsan City</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1447,7 +1447,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1471,31 +1471,31 @@
         <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1511,15 +1511,15 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.5" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="82" customHeight="1">
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1535,15 +1535,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>123</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1551,12 +1551,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>2012.07</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5">
         <v>101100</v>
@@ -1580,18 +1580,18 @@
     </row>
     <row r="19" spans="1:2" ht="28">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1696,13 +1696,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>18</v>
@@ -1711,28 +1711,28 @@
         <v>20</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="O1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="106.5" customHeight="1">
@@ -1740,31 +1740,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1779,31 +1779,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1818,29 +1818,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>98</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="J4" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
@@ -1852,12 +1852,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="G6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1895,26 +1895,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1923,12 +1923,12 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1936,20 +1936,20 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2002,16 +2002,16 @@
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" customHeight="1">
@@ -2019,15 +2019,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2043,16 +2043,16 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="25"/>
     </row>
@@ -2088,21 +2088,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2134,90 +2134,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="320" windowWidth="13180" windowHeight="16060"/>
+    <workbookView xWindow="660" yWindow="320" windowWidth="22720" windowHeight="16060" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>linjj666@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Professor， of Japanese Language and Literature Department of Xiamen University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,10 +760,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Bachelor of Art in Japanese Language and Literature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10/31/2012</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -788,6 +780,15 @@
   <si>
     <t>People's Republic of China
 唐山市 Tangsan City</t>
+  </si>
+  <si>
+    <t>Bachelor of Art in Japanese Language and Literature</t>
+  </si>
+  <si>
+    <t>linjj678@gmial.com</t>
+  </si>
+  <si>
+    <t>linjj666@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1479,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1511,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.5" customHeight="1">
@@ -1527,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1540,10 +1541,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1551,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1660,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1746,22 +1747,22 @@
         <v>100</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>109</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>101</v>
@@ -1772,7 +1773,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="27"/>
+      <c r="Q2" s="27" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
       <c r="A3" s="31">
@@ -1785,25 +1788,25 @@
         <v>93</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1824,20 +1827,20 @@
         <v>97</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>98</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>95</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1866,6 +1869,7 @@
     <hyperlink ref="I3" r:id="rId1"/>
     <hyperlink ref="I4" r:id="rId2"/>
     <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1939,7 +1943,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1971,7 +1975,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2024,10 +2028,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2049,7 +2053,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2145,7 +2149,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2153,7 +2157,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2161,7 +2165,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2169,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2177,7 +2181,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2185,7 +2189,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2193,7 +2197,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2201,7 +2205,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2209,7 +2213,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2217,7 +2221,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="320" windowWidth="22720" windowHeight="16060" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2740" yWindow="1400" windowWidth="22720" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -642,10 +642,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Professor， of Japanese Language and Literature Department of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Japanese Language and Literature Department of Xiamen University
 361005, China
 </t>
@@ -667,10 +663,6 @@
   </si>
   <si>
     <t>Finance Dept.of Xiamen U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor， Finance Department of Xiamen University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,9 +714,6 @@
     </r>
   </si>
   <si>
-    <t>Manager of Department of Credit Management</t>
-  </si>
-  <si>
     <t>wuxinghua@ec.com.cn</t>
   </si>
   <si>
@@ -789,6 +778,37 @@
   </si>
   <si>
     <t>linjj666@hotmail.com</t>
+  </si>
+  <si>
+    <t>Manager of Dept. of Credit Management</t>
+  </si>
+  <si>
+    <t>Professor， Finance Dept. of Xiamen University</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Professor， of Japanese Language and Literature </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dept.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of Xiamen University</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1407,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1480,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1512,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.5" customHeight="1">
@@ -1528,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1541,10 +1561,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1552,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1661,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1747,22 +1767,22 @@
         <v>100</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>101</v>
@@ -1774,7 +1794,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
@@ -1788,25 +1808,25 @@
         <v>93</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1827,20 +1847,20 @@
         <v>97</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>98</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>95</v>
@@ -1855,7 +1875,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1882,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1897,7 +1917,7 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -1905,7 +1925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
         <v>102</v>
       </c>
@@ -1913,7 +1933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="29" t="s">
         <v>76</v>
       </c>
@@ -1921,42 +1941,54 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="29"/>
       <c r="B4" s="17"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>3.65</v>
+      </c>
+      <c r="C5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>3.71</v>
+      </c>
+      <c r="C6">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="29"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="29"/>
     </row>
   </sheetData>
@@ -2028,10 +2060,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2053,7 +2085,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2149,7 +2181,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2157,7 +2189,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2165,7 +2197,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2173,7 +2205,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2181,7 +2213,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2189,7 +2221,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2197,7 +2229,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2205,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2213,7 +2245,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2221,7 +2253,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1400" windowWidth="22720" windowHeight="16060"/>
+    <workbookView xWindow="2820" yWindow="3120" windowWidth="22720" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lzb603@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,9 +770,6 @@
     <t>Bachelor of Art in Japanese Language and Literature</t>
   </si>
   <si>
-    <t>linjj678@gmial.com</t>
-  </si>
-  <si>
     <t>linjj666@hotmail.com</t>
   </si>
   <si>
@@ -809,6 +802,12 @@
       </rPr>
       <t xml:space="preserve"> of Xiamen University</t>
     </r>
+  </si>
+  <si>
+    <t>lzb603@hotmail.com</t>
+  </si>
+  <si>
+    <t>linjj678@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1532,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.5" customHeight="1">
@@ -1548,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1561,10 +1560,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>118</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1572,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1681,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1761,31 +1760,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1794,7 +1793,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
@@ -1808,25 +1807,25 @@
         <v>93</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="I3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1841,29 +1840,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
@@ -1875,7 +1874,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1927,10 +1926,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1938,7 +1937,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1975,7 +1974,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2060,10 +2059,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2085,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2181,7 +2180,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2189,7 +2188,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2197,7 +2196,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2205,7 +2204,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2213,7 +2212,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2221,7 +2220,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2229,7 +2228,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2237,7 +2236,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2245,7 +2244,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2253,7 +2252,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3120" windowWidth="22720" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="2820" yWindow="3120" windowWidth="22725" windowHeight="16065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="AdditionalInformation" sheetId="6" r:id="rId5"/>
     <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,21 +182,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Previous Employment</t>
-  </si>
-  <si>
-    <t>#1 National Scholarship (Top 1%) in 2008
-#2 First Class Scholarship (Top 5%) in 2007,2008,2009,2010
-#3 Outstanding Student Award in 2007,2008,2009,2010
-#4 Second Class Prize in the Landscape Design Competition in 2010
-#5 Excellent Work Award in the 1st Xiamen College Student Physical Construction Competition in 2009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awards/Distinctions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>申请Visa类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +228,6 @@
   <si>
     <t>职位Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research Experience</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Topics: </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Registration Number</t>
@@ -809,20 +786,52 @@
   <si>
     <t>linjj678@gmail.com</t>
   </si>
+  <si>
+    <t>Name of Employer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Analyze Assistant in Department of Credit Management</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>China National Credit Information Service,Inc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间是2012.7到2013.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyichao@ec.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -920,6 +929,14 @@
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -992,7 +1009,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,16 +1055,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1122,10 +1139,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1430,28 +1450,28 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="10" max="11" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="8.875" style="1"/>
     <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.83203125" style="1"/>
+    <col min="20" max="23" width="8.875" style="1"/>
     <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="25" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1467,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1475,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1486,20 +1506,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28">
+    <row r="5" spans="1:2" ht="27">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1512,10 +1532,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1531,23 +1551,23 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="41.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.45" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="82" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="81.95" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1555,15 +1575,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1571,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1598,20 +1618,20 @@
         <v>101100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28">
+    <row r="19" spans="1:2" ht="27">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1619,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1627,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1680,29 +1700,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="21.125" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="56">
+    <row r="1" spans="1:17" ht="54">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1716,13 +1736,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>18</v>
@@ -1731,28 +1751,28 @@
         <v>20</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="106.5" customHeight="1">
@@ -1760,31 +1780,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1793,7 +1813,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
@@ -1801,31 +1821,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1840,29 +1860,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
@@ -1874,12 +1894,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="G6" s="26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1907,37 +1927,37 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1946,7 +1966,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>3.65</v>
@@ -1957,7 +1977,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>3.71</v>
@@ -1971,20 +1991,20 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2006,16 +2026,16 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="59.375" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2037,16 +2057,16 @@
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" customHeight="1">
@@ -2054,21 +2074,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:9" ht="28">
+    <row r="3" spans="1:9" ht="27">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2078,13 +2098,13 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2109,41 +2129,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="67.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>136</v>
+      </c>
       <c r="B2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2161,103 +2191,104 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3120" windowWidth="22725" windowHeight="16065" activeTab="4"/>
+    <workbookView xWindow="2820" yWindow="3150" windowWidth="22725" windowHeight="16035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -750,12 +750,6 @@
     <t>linjj666@hotmail.com</t>
   </si>
   <si>
-    <t>Manager of Dept. of Credit Management</t>
-  </si>
-  <si>
-    <t>Professor， Finance Dept. of Xiamen University</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Professor， of Japanese Language and Literature </t>
     </r>
@@ -817,6 +811,14 @@
   <si>
     <t>zhangyichao@ec.com.cn</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor， Finance Dept. of Xiamen University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager of Dept. of Credit Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1701,7 +1703,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1792,7 +1794,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>107</v>
@@ -1801,7 +1803,7 @@
         <v>101</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>95</v>
@@ -1833,7 +1835,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>106</v>
@@ -1842,7 +1844,7 @@
         <v>104</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>110</v>
@@ -1870,7 +1872,7 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>108</v>
@@ -2130,7 +2132,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2143,30 +2145,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1">
       <c r="A2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/13/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Zibai Li</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +718,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10/31/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Verbal 21;Quantitative 50; Total 610;Analytical Writing 2.5; Integrated Reasoning 5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -789,36 +781,48 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间是2012.7到2013.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyichao@ec.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>China National Credit Information Service,Inc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuxh000@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor， Finance Dept. of Xiamen University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager of Dept. of Credit Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Credit Analyze Assistant in Department of Credit Management</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>China National Credit Information Service,Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间是2012.7到2013.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work Email</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangyichao@ec.com.cn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor， Finance Dept. of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager of Dept. of Credit Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1011,7 +1015,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1553,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.45" customHeight="1">
@@ -1569,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1582,10 +1589,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1593,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1702,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1782,31 +1789,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1815,7 +1822,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
@@ -1823,31 +1830,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>104</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1861,30 +1868,30 @@
       <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
@@ -1892,11 +1899,13 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1948,10 +1957,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1959,7 +1968,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1996,7 +2005,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2028,7 +2037,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2081,10 +2090,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2100,13 +2109,13 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2132,7 +2141,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2145,30 +2154,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1">
       <c r="A2" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2221,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2220,7 +2229,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2228,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2236,7 +2245,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2244,7 +2253,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2252,7 +2261,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2260,7 +2269,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2268,7 +2277,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2276,7 +2285,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2284,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3150" windowWidth="22725" windowHeight="16035" activeTab="4"/>
+    <workbookView xWindow="2820" yWindow="3150" windowWidth="22725" windowHeight="16035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -1932,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1947,7 +1947,7 @@
     <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="28" t="s">
         <v>83</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
         <v>95</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -1971,36 +1971,30 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="29"/>
       <c r="B4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B5">
-        <v>3.65</v>
-      </c>
-      <c r="C5">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B6">
         <v>3.71</v>
       </c>
-      <c r="C6">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="29"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="30" t="s">
         <v>82</v>
       </c>
@@ -2008,17 +2002,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="29"/>
     </row>
   </sheetData>
@@ -2140,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>所获学位类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,10 +607,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Chinese Japanese</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Japanese Language and Literature Department of Xiamen University
 361005, China
 </t>
@@ -645,9 +641,6 @@
   </si>
   <si>
     <t>Thesis Advisor</t>
-  </si>
-  <si>
-    <t>Professor</t>
   </si>
   <si>
     <t>Department Head</t>
@@ -767,62 +760,68 @@
     </r>
   </si>
   <si>
+    <t>Name of Employer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间是2012.7到2013.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyichao@ec.com.cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>China National Credit Information Service,Inc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuxh000@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor， Finance Dept. of Xiamen University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager of Dept. of Credit Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Analyze Assistant in Department of Credit Management</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>linjj678@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lzb603@hotmail.com</t>
-  </si>
-  <si>
-    <t>linjj678@gmail.com</t>
-  </si>
-  <si>
-    <t>Name of Employer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间是2012.7到2013.1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work Email</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangyichao@ec.com.cn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>China National Credit Information Service,Inc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuxh000@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor， Finance Dept. of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager of Dept. of Credit Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/31/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/13/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit Analyze Assistant in Department of Credit Management</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1528,7 +1527,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1560,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.45" customHeight="1">
@@ -1576,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1">
@@ -1589,10 +1588,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" customHeight="1">
@@ -1600,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1">
@@ -1710,7 +1709,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1794,23 +1793,23 @@
       <c r="C2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>100</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>94</v>
@@ -1822,7 +1821,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
@@ -1835,26 +1834,26 @@
       <c r="C3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>103</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -1874,21 +1873,21 @@
       <c r="C4" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>104</v>
+      <c r="D4" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>88</v>
@@ -1900,12 +1899,12 @@
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
       <c r="Q4" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="G5" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1935,7 +1934,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1967,9 +1966,7 @@
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>97</v>
-      </c>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29"/>
@@ -1999,7 +1996,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2084,10 +2081,10 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2103,13 +2100,13 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>38</v>
@@ -2148,30 +2145,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="62.25" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2212,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2223,7 +2220,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2231,7 +2228,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2239,7 +2236,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2247,7 +2244,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2255,7 +2252,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2263,7 +2260,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2271,7 +2268,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2279,7 +2276,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2287,7 +2284,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PersonalInformation_ZhangYiChao.xlsx
+++ b/documents/PersonalInformation_ZhangYiChao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3150" windowWidth="22725" windowHeight="16035" activeTab="2"/>
+    <workbookView xWindow="2820" yWindow="3150" windowWidth="22725" windowHeight="16035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人信息" sheetId="1" r:id="rId1"/>
@@ -788,39 +788,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Professor， Finance Dept. of Xiamen University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager of Dept. of Credit Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>linjj678@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzb603@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit Analyze Assistant in Department of Credit Management</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>wuxh000@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor， Finance Dept. of Xiamen University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager of Dept. of Credit Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/31/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/13/2012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit Analyze Assistant in Department of Credit Management</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>linjj678@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzb603@hotmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1803,13 +1803,13 @@
         <v>124</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>99</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>94</v>
@@ -1841,7 +1841,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>104</v>
@@ -1850,7 +1850,7 @@
         <v>102</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>107</v>
@@ -1878,16 +1878,16 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>105</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>88</v>
@@ -1933,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2081,7 +2081,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>117</v>
@@ -2100,7 +2100,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>85</v>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2162,7 +2162,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>128</v>
